--- a/Blog/server/users.xlsx
+++ b/Blog/server/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,9 +472,65 @@
         <v>$2a$10$5bZe4J6nWf0VqlCM9NvGSuEOeerMJPwnNO1g2n3RVf.6FizOVchme</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>1734425452534</v>
+      </c>
+      <c r="B6" t="str">
+        <v>adesh</v>
+      </c>
+      <c r="C6" t="str">
+        <v>adesh@1.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>$2a$10$qV6Jcj5LqwPcdZAr/Y4poOANzsfwtdL2.aev0IKJvnK0hVxStWKq.</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1734425777014</v>
+      </c>
+      <c r="B7" t="str">
+        <v>gii</v>
+      </c>
+      <c r="C7" t="str">
+        <v>dd@1ss.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>$2a$10$HYsiBR56bxBVbrs8TeHxSeRzbCgC381Xc609pxDx56gw6wgLSkq/6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1734426135137</v>
+      </c>
+      <c r="B8" t="str">
+        <v>adesh</v>
+      </c>
+      <c r="C8" t="str">
+        <v>adesh#@s.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>$2a$10$xjYtaIQv/ipHVF.wEtu6QudHdqeOuqiCri9Hr0PAZ9gdysnOk2sUS</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1734426247575</v>
+      </c>
+      <c r="B9" t="str">
+        <v>affa</v>
+      </c>
+      <c r="C9" t="str">
+        <v>adesh@q.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>$2a$10$pOnD7iZI7apARgGmmiBIpOno0Dqo80oDEbIPE2ynWsEhOpq5WWgvi</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>